--- a/biology/Zoologie/Elacatinus/Elacatinus.xlsx
+++ b/biology/Zoologie/Elacatinus/Elacatinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elacatinus est un genre de poissons de la famille des Gobiidae, regroupant certaines des espèces de gobies, appelés Gobies néon en raison de leur écailles aux reflets métalliques.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon ITIS
-Elacatinus atronasus (Böhlke &amp; Robins, 1968)
+          <t>Selon ITIS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Elacatinus atronasus (Böhlke &amp; Robins, 1968)
 Elacatinus chancei (Beebe &amp; Hollister, 1933)
 Elacatinus digueti (Pellegrin, 1901)
 Elacatinus evelynae (Böhlke &amp; Robins, 1968) — Gobie nez de requin
@@ -534,16 +551,50 @@
 Elacatinus saucrus (Robins, 1960)
 Elacatinus tenox (Böhlke &amp; Robins, 1968)
 Elacatinus xanthiprora (Böhlke &amp; Robins, 1968)
-Elacatinus zebrellus (Robins, 1958)
-Autres taxons
-Certaines classifications[1] mentionnent :
-Elacatinus gemmatus (considéré par l'ITIS comme l'espèce Tigrigobius gemmatus[2]) ;
+Elacatinus zebrellus (Robins, 1958)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elacatinus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elacatinus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres taxons</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Certaines classifications mentionnent :
+Elacatinus gemmatus (considéré par l'ITIS comme l'espèce Tigrigobius gemmatus) ;
 Elacatinus inornatus ;
 Elacatinus jarocho ;
-Elacatinus lori (considéré par l'ITIS comme l'espèce Gobiosoma lori[3]) ;
-Elacatinus pallens (considéré par l'ITIS comme l'espèce Tigrigobius pallens[4]) ;
+Elacatinus lori (considéré par l'ITIS comme l'espèce Gobiosoma lori) ;
+Elacatinus pallens (considéré par l'ITIS comme l'espèce Tigrigobius pallens) ;
 Elacatinus pridisi ;
-Elacatinus puncticulatus (considéré par l'ITIS comme l'espèce Gobiosoma puncticulatus[5]) ;
+Elacatinus puncticulatus (considéré par l'ITIS comme l'espèce Gobiosoma puncticulatus) ;
 Elacatinus redimiculus.</t>
         </is>
       </c>
